--- a/mbi-shape-code-77.xlsx
+++ b/mbi-shape-code-77.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/593964578465e7ef/mbi - ContentHub/Spiral/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="501" documentId="8_{6883E34E-D46A-4798-926F-83FDA3BE3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0408DD31-60D4-4F93-8447-46C57C9483FC}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="m7TuGyW01D8Hih2MhjD8Z5IcmTAEzk5CkJEpQhAZNyZ6nHHcPCUgutr2LVHEoynoS4nsXAx78qKb5nin6IhEtQ==" workbookSaltValue="wtdbLAdD0iMKNBUSA7k3ww==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="626" documentId="8_{6883E34E-D46A-4798-926F-83FDA3BE3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B6FCF3-AF6E-4D28-B91F-7EFA3C5ECA24}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="FI7h0QnbqL8ffYDIJ+pQJakwlYOt4VB0SdLXdXbiR37zlHkNDGX0Bhd+hX66EdbDEdiCw+qim9uZ50AEj+eiIA==" workbookSaltValue="G4JILu5qC4llFCw3VWXpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="531" xr2:uid="{AF061347-0FD4-4018-BA1D-D4FD9CFEC2E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spiral Rebar Detailing Tool" sheetId="1" r:id="rId1"/>
+    <sheet name="Shape Code 77" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Spiral Rebar Detailing Tool'!$A$1:$U$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shape Code 77'!$A$1:$U$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,13 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -538,7 +545,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
@@ -671,6 +678,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -800,13 +811,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>157590</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>210018</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>162092</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -865,13 +876,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>362805</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47908</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -887,7 +898,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1047750" y="11277600"/>
+          <a:off x="1047750" y="11087100"/>
           <a:ext cx="6125430" cy="2029108"/>
           <a:chOff x="819150" y="10182225"/>
           <a:chExt cx="6125430" cy="2029108"/>
@@ -989,13 +1000,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>210018</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28910</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1011,7 +1022,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2343150" y="14125575"/>
+          <a:off x="2343150" y="13935075"/>
           <a:ext cx="3353268" cy="2400635"/>
           <a:chOff x="6838950" y="11039475"/>
           <a:chExt cx="3353268" cy="2400635"/>
@@ -1120,13 +1131,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>314588</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>18244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1175,13 +1186,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66908</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>176354</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1237,13 +1248,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>67530</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>47908</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1259,7 +1270,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6257925" y="16611600"/>
+          <a:off x="6257925" y="16421100"/>
           <a:ext cx="6125430" cy="2029108"/>
           <a:chOff x="723900" y="15573375"/>
           <a:chExt cx="6125430" cy="2029108"/>
@@ -1361,13 +1372,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295407</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>18244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>67530</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>176354</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1723,10 +1734,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A8AB99-D17D-4E45-80C5-1D0D27EB27B2}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:BW98"/>
+  <dimension ref="A2:BW97"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,72 +2402,101 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
+      <c r="C35" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
       <c r="F36" s="22"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B37" s="21"/>
+      <c r="C37" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="35">
+        <f>ROUNDUP(IF(D16&lt;D32,(D16/D32),(D16/D32)+((((D16/D32)-1)*D23*D20)/D31)),0)</f>
+        <v>43</v>
+      </c>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
       <c r="F38" s="22"/>
     </row>
-    <row r="39" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C39" s="45" t="str">
+        <f>_xlfn.CONCAT("A total of ",IF((INT((D16/D32)+((((D16/D32)-1)*D23*D20)/D31)))&lt;0,0,INT((D16/D32)+((((D16/D32)-1)*D23*D20)/D31)))," reinforcement bars with a length of ",D31,E31," each, plus one bar with a length of ",_xlfn.CEILING.MATH(MOD((IF(D16&lt;D32,(D16/D32),(D16/D32)+((((D16/D32)-1)*D23*D20)/D31)))*D31,D31),5),E31)</f>
+        <v>A total of 42 reinforcement bars with a length of 12000mm each, plus one bar with a length of 2240mm</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
-      <c r="C40" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="35">
-        <f>ROUNDUP((D16/D32)+((((D16/D32)-1)*D23*D20)/D31),0)</f>
-        <v>43</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K45" s="23"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K44" s="23"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
-      <c r="B48" s="40" t="s">
-        <v>28</v>
-      </c>
+      <c r="B48" s="40"/>
       <c r="C48" s="40"/>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
@@ -2546,46 +2586,26 @@
       <c r="T51" s="39"/>
       <c r="U51" s="39"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="39"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-    </row>
-    <row r="53" spans="1:23" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="W53" s="19"/>
-    </row>
-    <row r="54" spans="1:23" s="41" customFormat="1" ht="30.75" x14ac:dyDescent="0.45">
-      <c r="C54" s="42" t="s">
+    <row r="52" spans="1:23" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="W52" s="19"/>
+    </row>
+    <row r="53" spans="1:23" s="41" customFormat="1" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="C53" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="43" t="s">
+    <row r="54" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PWdN46SqnU3+Lp+qnqxLzBw2Wn/33atHrqc3J+4M3w0POAUjvOcVGjVdTrM423aG/Y68+n2sT1nJMbtqbNN/Yg==" saltValue="wOOpo24GJWWV5hFZSF/Kgg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+UkNjQWeEB4KToqgHzrBi23gwQ41wWgL4OpBYCxRz4b42HuRsjCmRC7R8kLxeTZVZljSOX/UZtB4WOdzUjdpDw==" saltValue="0e+SzZpEJ1mMoCMIyo1kdA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="C39:E40"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20" xr:uid="{D9BD8A4E-41F3-4385-8269-F0697BE3D507}">
       <formula1>"8,10,12,14,16,18,20,22,25,32,40"</formula1>
